--- a/PCB_Project/Project Outputs for PCB_Project/BOM/Bill of Materials-PCB_Project.xlsx
+++ b/PCB_Project/Project Outputs for PCB_Project/BOM/Bill of Materials-PCB_Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projekt PBL\Projekt_PBL4\PCB_Project\Project Outputs for PCB_Project\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F185FCC-2F04-49E2-9F4E-BD13D206D62F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5F77944-9A1D-43FC-8DA2-F1C6C59348FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{7C89935C-9FC6-45FE-A12C-C79BF02EEAC3}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{8EA16C40-7003-4E59-BE06-1A18804469D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-PCB_Project" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD7F3E4B-E001-41CB-8885-6076648F62FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6496A1-BEE2-44FC-B319-283854D877FE}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
